--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_TRA_NAP_CUNG_UNG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_TRA_NAP_CUNG_UNG.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145078F-A495-45FB-ACAA-89D27BB97518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,6 +246,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,10 +274,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,12 +553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,14 +583,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -596,12 +600,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -612,35 +616,35 @@
       <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
@@ -656,8 +660,8 @@
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
@@ -672,19 +676,19 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_TRA_NAP_CUNG_UNG.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_TRA_NAP_CUNG_UNG.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145078F-A495-45FB-ACAA-89D27BB97518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E2C9C-A610-468C-990E-1439E8D82E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TH KH tra nạp cung ứng" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,17 +109,24 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,7 +138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,39 +246,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -280,6 +287,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,39 +570,39 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -600,95 +612,95 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
